--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd80-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd80-Cd28.xlsx
@@ -534,22 +534,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H2">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I2">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J2">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N2">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O2">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P2">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q2">
-        <v>2.142153148383112</v>
+        <v>1.194339467086778</v>
       </c>
       <c r="R2">
-        <v>19.279378335448</v>
+        <v>10.749055203781</v>
       </c>
       <c r="S2">
-        <v>0.008642321448612598</v>
+        <v>0.003151934593620062</v>
       </c>
       <c r="T2">
-        <v>0.008710782835449273</v>
+        <v>0.003244316701648807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H3">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I3">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J3">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N3">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O3">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P3">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q3">
-        <v>0.02859871368933333</v>
+        <v>0.09137551557149999</v>
       </c>
       <c r="R3">
-        <v>0.171592282136</v>
+        <v>0.548253093429</v>
       </c>
       <c r="S3">
-        <v>0.0001153789013202025</v>
+        <v>0.0002411455507220155</v>
       </c>
       <c r="T3">
-        <v>7.752859453863219E-05</v>
+        <v>0.0001654756286968054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6166306666666667</v>
+        <v>0.2791963333333333</v>
       </c>
       <c r="H4">
-        <v>1.849892</v>
+        <v>0.837589</v>
       </c>
       <c r="I4">
-        <v>0.01585912217154475</v>
+        <v>0.008912184157424861</v>
       </c>
       <c r="J4">
-        <v>0.01594598818140205</v>
+        <v>0.009090659364840875</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N4">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O4">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P4">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q4">
-        <v>1.760213757798222</v>
+        <v>2.091313620252222</v>
       </c>
       <c r="R4">
-        <v>15.841923820184</v>
+        <v>18.82182258227</v>
       </c>
       <c r="S4">
-        <v>0.007101421821611945</v>
+        <v>0.005519104013082784</v>
       </c>
       <c r="T4">
-        <v>0.007157676751414147</v>
+        <v>0.005680867034495263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H5">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I5">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J5">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N5">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O5">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P5">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q5">
-        <v>8.72208656256467</v>
+        <v>10.74021731787633</v>
       </c>
       <c r="R5">
-        <v>78.49877906308203</v>
+        <v>96.66195586088699</v>
       </c>
       <c r="S5">
-        <v>0.03518846252108734</v>
+        <v>0.02834408762341608</v>
       </c>
       <c r="T5">
-        <v>0.03546721296553311</v>
+        <v>0.02917484298556821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H6">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I6">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J6">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N6">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O6">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P6">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q6">
-        <v>0.116443801679</v>
+        <v>0.8217034786305</v>
       </c>
       <c r="R6">
-        <v>0.6986628100740001</v>
+        <v>4.930220871783</v>
       </c>
       <c r="S6">
-        <v>0.0004697818947109354</v>
+        <v>0.002168525525084433</v>
       </c>
       <c r="T6">
-        <v>0.0003156688928381847</v>
+        <v>0.001488056169952201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.510701000000001</v>
+        <v>2.510701</v>
       </c>
       <c r="H7">
-        <v>7.532103000000001</v>
+        <v>7.532103</v>
       </c>
       <c r="I7">
-        <v>0.06457271110186905</v>
+        <v>0.08014370894160773</v>
       </c>
       <c r="J7">
-        <v>0.06492639863251636</v>
+        <v>0.0817486651256118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N7">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O7">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P7">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q7">
-        <v>7.166965058367334</v>
+        <v>18.80634725747667</v>
       </c>
       <c r="R7">
-        <v>64.50268552530601</v>
+        <v>169.25712531729</v>
       </c>
       <c r="S7">
-        <v>0.02891446668607076</v>
+        <v>0.04963109579310722</v>
       </c>
       <c r="T7">
-        <v>0.02914351677414506</v>
+        <v>0.05108576597009139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H8">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I8">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J8">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N8">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O8">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P8">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q8">
-        <v>42.48761037693356</v>
+        <v>71.201182958034</v>
       </c>
       <c r="R8">
-        <v>382.388493392402</v>
+        <v>640.810646622306</v>
       </c>
       <c r="S8">
-        <v>0.1714123879228816</v>
+        <v>0.1879042582587558</v>
       </c>
       <c r="T8">
-        <v>0.1727702556981043</v>
+        <v>0.1934116667946621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H9">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I9">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J9">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N9">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O9">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P9">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q9">
-        <v>0.5672288208856667</v>
+        <v>5.447399990859</v>
       </c>
       <c r="R9">
-        <v>3.403372925314</v>
+        <v>32.684399945154</v>
       </c>
       <c r="S9">
-        <v>0.002288432929602429</v>
+        <v>0.01437602034399369</v>
       </c>
       <c r="T9">
-        <v>0.001537707385821114</v>
+        <v>0.00986491767091616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.23029433333333</v>
+        <v>16.644438</v>
       </c>
       <c r="H10">
-        <v>36.690883</v>
+        <v>49.933314</v>
       </c>
       <c r="I10">
-        <v>0.314550901392543</v>
+        <v>0.5313046016107197</v>
       </c>
       <c r="J10">
-        <v>0.3162738077051014</v>
+        <v>0.5419444960853593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N10">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O10">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P10">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q10">
-        <v>34.91219868098511</v>
+        <v>124.67477446878</v>
       </c>
       <c r="R10">
-        <v>314.209788128866</v>
+        <v>1122.07297021902</v>
       </c>
       <c r="S10">
-        <v>0.140850080540059</v>
+        <v>0.3290243230079703</v>
       </c>
       <c r="T10">
-        <v>0.141965844621176</v>
+        <v>0.3386679116197811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H11">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I11">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J11">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N11">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O11">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P11">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q11">
-        <v>2.207450946246001</v>
+        <v>7.893096223686666</v>
       </c>
       <c r="R11">
-        <v>13.244705677476</v>
+        <v>47.35857734212</v>
       </c>
       <c r="S11">
-        <v>0.00890575945697515</v>
+        <v>0.02083036165496009</v>
       </c>
       <c r="T11">
-        <v>0.00598420513714425</v>
+        <v>0.01429392821271598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H12">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I12">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J12">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N12">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O12">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P12">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q12">
-        <v>0.02947046883300001</v>
+        <v>0.60387834177</v>
       </c>
       <c r="R12">
-        <v>0.117881875332</v>
+        <v>2.41551336708</v>
       </c>
       <c r="S12">
-        <v>0.0001188959179171417</v>
+        <v>0.001593671722500724</v>
       </c>
       <c r="T12">
-        <v>5.326123064686959E-05</v>
+        <v>0.0007290585275919896</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6354270000000001</v>
+        <v>1.84514</v>
       </c>
       <c r="H13">
-        <v>1.270854</v>
+        <v>3.69028</v>
       </c>
       <c r="I13">
-        <v>0.01634254500927324</v>
+        <v>0.0588984363795283</v>
       </c>
       <c r="J13">
-        <v>0.01095470593109626</v>
+        <v>0.04005195679609568</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N13">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O13">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P13">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q13">
-        <v>1.813869156918</v>
+        <v>13.82097811673333</v>
       </c>
       <c r="R13">
-        <v>10.883214941508</v>
+        <v>82.92586870039999</v>
       </c>
       <c r="S13">
-        <v>0.007317889634380949</v>
+        <v>0.03647440300206749</v>
       </c>
       <c r="T13">
-        <v>0.004917239563305142</v>
+        <v>0.02502897005578772</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H14">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I14">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J14">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="N14">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="O14">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="P14">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="Q14">
-        <v>79.51457791149755</v>
+        <v>42.98314650472388</v>
       </c>
       <c r="R14">
-        <v>715.631201203478</v>
+        <v>386.848318542515</v>
       </c>
       <c r="S14">
-        <v>0.3207943104724336</v>
+        <v>0.1134351414688994</v>
       </c>
       <c r="T14">
-        <v>0.3233355285369136</v>
+        <v>0.1167598860605693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H15">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I15">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J15">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="N15">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="O15">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="P15">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="Q15">
-        <v>1.061555589307667</v>
+        <v>3.2885182822725</v>
       </c>
       <c r="R15">
-        <v>6.369333535846</v>
+        <v>19.731109693635</v>
       </c>
       <c r="S15">
-        <v>0.004282749179391289</v>
+        <v>0.008678600030634011</v>
       </c>
       <c r="T15">
-        <v>0.002877783726837658</v>
+        <v>0.005955311188522661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.88871233333333</v>
+        <v>10.04801166666667</v>
       </c>
       <c r="H16">
-        <v>68.66613699999999</v>
+        <v>30.144035</v>
       </c>
       <c r="I16">
-        <v>0.5886747203247699</v>
+        <v>0.3207410689107194</v>
       </c>
       <c r="J16">
-        <v>0.591899099549884</v>
+        <v>0.3271642226280922</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="N16">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="O16">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="P16">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="Q16">
-        <v>65.33737052879709</v>
+        <v>75.26439693556111</v>
       </c>
       <c r="R16">
-        <v>588.0363347591739</v>
+        <v>677.37957242005</v>
       </c>
       <c r="S16">
-        <v>0.2635976606729449</v>
+        <v>0.1986273274111861</v>
       </c>
       <c r="T16">
-        <v>0.2656857872861327</v>
+        <v>0.2044490253790003</v>
       </c>
     </row>
   </sheetData>
